--- a/DIY Recipe_Steven.xlsx
+++ b/DIY Recipe_Steven.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\改色\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4943B1C-378E-4371-83FC-8FC2AE590435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4433258-30B0-4485-BFF7-6FFF344F34CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="579">
   <si>
     <t>No</t>
   </si>
@@ -1753,6 +1753,15 @@
   </si>
   <si>
     <t>crescent-moon chair</t>
+  </si>
+  <si>
+    <t>hedge</t>
+  </si>
+  <si>
+    <t>wedding fence</t>
+  </si>
+  <si>
+    <t>wedding wand</t>
   </si>
 </sst>
 </file>
@@ -2077,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C573"/>
+  <dimension ref="A1:C576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8393,6 +8402,39 @@
         <v>575</v>
       </c>
     </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>8955</v>
+      </c>
+      <c r="B574" t="s">
+        <v>3</v>
+      </c>
+      <c r="C574" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>8956</v>
+      </c>
+      <c r="B575" t="s">
+        <v>3</v>
+      </c>
+      <c r="C575" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>8957</v>
+      </c>
+      <c r="B576" t="s">
+        <v>3</v>
+      </c>
+      <c r="C576" t="s">
+        <v>578</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DIY Recipe_Steven.xlsx
+++ b/DIY Recipe_Steven.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\改色\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\套装\AnimalCrossing-Item-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4433258-30B0-4485-BFF7-6FFF344F34CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E119A3B-3603-43DD-9DF7-63C6F1DA2349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="4545" windowWidth="16365" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="603">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>drinking fountain</t>
   </si>
   <si>
-    <t>tire toy</t>
-  </si>
-  <si>
     <t>iron frame</t>
   </si>
   <si>
@@ -450,9 +444,6 @@
     <t>succulent plant</t>
   </si>
   <si>
-    <t>fish bait</t>
-  </si>
-  <si>
     <t>classic pitcher</t>
   </si>
   <si>
@@ -1359,9 +1350,6 @@
     <t>gold armor</t>
   </si>
   <si>
-    <t>Medicine</t>
-  </si>
-  <si>
     <t>zen-style stone</t>
   </si>
   <si>
@@ -1762,6 +1750,90 @@
   </si>
   <si>
     <t>wedding wand</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>bamboo sphere</t>
+  </si>
+  <si>
+    <t>wood-egg shell</t>
+  </si>
+  <si>
+    <t>wood-egg outfit</t>
+  </si>
+  <si>
+    <t>wood-egg shoes</t>
+  </si>
+  <si>
+    <t>sky-egg shell</t>
+  </si>
+  <si>
+    <t>sky-egg outfit</t>
+  </si>
+  <si>
+    <t>sky-egg shoes</t>
+  </si>
+  <si>
+    <t>Bunny Day bed</t>
+  </si>
+  <si>
+    <t>Bunny Day stool</t>
+  </si>
+  <si>
+    <t>Bunny Day glowy garland</t>
+  </si>
+  <si>
+    <t>Bunny Day wall clock</t>
+  </si>
+  <si>
+    <t>Bunny Day merry balloons</t>
+  </si>
+  <si>
+    <t>Bunny Day vanity</t>
+  </si>
+  <si>
+    <t>mermaid table</t>
+  </si>
+  <si>
+    <t>mermaid shelf</t>
+  </si>
+  <si>
+    <t>mermaid vanity</t>
+  </si>
+  <si>
+    <t>mermaid screen</t>
+  </si>
+  <si>
+    <t>mermaid lamp</t>
+  </si>
+  <si>
+    <t>mermaid wall clock</t>
+  </si>
+  <si>
+    <t>mermaid bed</t>
+  </si>
+  <si>
+    <t>mermaid closet</t>
+  </si>
+  <si>
+    <t>mermaid sofa</t>
+  </si>
+  <si>
+    <t>mermaid dresser</t>
+  </si>
+  <si>
+    <t>mermaid chair</t>
+  </si>
+  <si>
+    <t>mermaid wall</t>
+  </si>
+  <si>
+    <t>mermaid flooring</t>
+  </si>
+  <si>
+    <t>mermaid rug</t>
   </si>
 </sst>
 </file>
@@ -2086,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C576"/>
+  <dimension ref="A1:C600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="A1:C600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2104,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2115,10 +2187,10 @@
         <v>7809</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2126,10 +2198,10 @@
         <v>7810</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2137,10 +2209,10 @@
         <v>7812</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2148,10 +2220,10 @@
         <v>7813</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2159,10 +2231,10 @@
         <v>7814</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2170,10 +2242,10 @@
         <v>7815</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2181,10 +2253,10 @@
         <v>7816</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2192,10 +2264,10 @@
         <v>7817</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2203,10 +2275,10 @@
         <v>7822</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2214,10 +2286,10 @@
         <v>7823</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2225,10 +2297,10 @@
         <v>7824</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2236,10 +2308,10 @@
         <v>7825</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2247,10 +2319,10 @@
         <v>7826</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2258,10 +2330,10 @@
         <v>7827</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2269,10 +2341,10 @@
         <v>7828</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2280,10 +2352,10 @@
         <v>7829</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2291,10 +2363,10 @@
         <v>7830</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2302,10 +2374,10 @@
         <v>7831</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2313,10 +2385,10 @@
         <v>7832</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2324,10 +2396,10 @@
         <v>7833</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2335,10 +2407,10 @@
         <v>7834</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2346,10 +2418,10 @@
         <v>7835</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2357,10 +2429,10 @@
         <v>7836</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2368,10 +2440,10 @@
         <v>7837</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2379,10 +2451,10 @@
         <v>7838</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2390,10 +2462,10 @@
         <v>7839</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2401,10 +2473,10 @@
         <v>7840</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2412,10 +2484,10 @@
         <v>7841</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2423,10 +2495,10 @@
         <v>7842</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2434,10 +2506,10 @@
         <v>7843</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2445,10 +2517,10 @@
         <v>7844</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2456,10 +2528,10 @@
         <v>7845</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2467,10 +2539,10 @@
         <v>7846</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2478,10 +2550,10 @@
         <v>7847</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2489,10 +2561,10 @@
         <v>7848</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2500,10 +2572,10 @@
         <v>7849</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2511,10 +2583,10 @@
         <v>7850</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2522,10 +2594,10 @@
         <v>7851</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2533,10 +2605,10 @@
         <v>7852</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2544,10 +2616,10 @@
         <v>7853</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2555,10 +2627,10 @@
         <v>7854</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2566,5848 +2638,5848 @@
         <v>7855</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>7857</v>
+        <v>7858</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>7858</v>
+        <v>7859</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>7860</v>
+        <v>7861</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>7861</v>
+        <v>7862</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>7862</v>
+        <v>7863</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>7863</v>
+        <v>7864</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>7865</v>
+        <v>7866</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>7867</v>
+        <v>7868</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>7868</v>
+        <v>7869</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>7869</v>
+        <v>7870</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>7871</v>
+        <v>7872</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>7872</v>
+        <v>7873</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>7873</v>
+        <v>7874</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>7875</v>
+        <v>7876</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>7876</v>
+        <v>7877</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>7877</v>
+        <v>7878</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>7879</v>
+        <v>7880</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>7880</v>
+        <v>7881</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>7881</v>
+        <v>7882</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>7882</v>
+        <v>7883</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>7883</v>
+        <v>7884</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>7885</v>
+        <v>7886</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>7886</v>
+        <v>7887</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>7887</v>
+        <v>7888</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>7889</v>
+        <v>7890</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>7890</v>
+        <v>7891</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>7892</v>
+        <v>7893</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>7893</v>
+        <v>7894</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>7895</v>
+        <v>7896</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>7896</v>
+        <v>7897</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>7898</v>
+        <v>7899</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>7899</v>
+        <v>7900</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>7900</v>
+        <v>7901</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>7902</v>
+        <v>7903</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>7903</v>
+        <v>7904</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>7904</v>
+        <v>7905</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>7906</v>
+        <v>7907</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>7907</v>
+        <v>7908</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>7908</v>
+        <v>7909</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>7910</v>
+        <v>7911</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>7911</v>
+        <v>7912</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>7912</v>
+        <v>7913</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>7914</v>
+        <v>7915</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>7915</v>
+        <v>7916</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>7916</v>
+        <v>7917</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>7918</v>
+        <v>7919</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>7919</v>
+        <v>7920</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>7920</v>
+        <v>7921</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>7922</v>
+        <v>7923</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>7923</v>
+        <v>7924</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>7924</v>
+        <v>7925</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>7926</v>
+        <v>7927</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>7927</v>
+        <v>7928</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>7928</v>
+        <v>7929</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>7930</v>
+        <v>7931</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>7931</v>
+        <v>7932</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>7932</v>
+        <v>7933</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>7934</v>
+        <v>7935</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>7935</v>
+        <v>7936</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>7936</v>
+        <v>7937</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>7938</v>
+        <v>7939</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>7939</v>
+        <v>7941</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>7942</v>
+        <v>7943</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>7943</v>
+        <v>7944</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>7944</v>
+        <v>7945</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>7946</v>
+        <v>7947</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>7947</v>
+        <v>7948</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>7948</v>
+        <v>7949</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>7950</v>
+        <v>7951</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>7951</v>
+        <v>7953</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>7952</v>
+        <v>7954</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>7953</v>
+        <v>7955</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>7954</v>
+        <v>7956</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>7955</v>
+        <v>7957</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>7956</v>
+        <v>7958</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>7957</v>
+        <v>7959</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>7958</v>
+        <v>7960</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>7959</v>
+        <v>7961</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>7960</v>
+        <v>7962</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>7961</v>
+        <v>7963</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>7962</v>
+        <v>7964</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>7963</v>
+        <v>7965</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>7964</v>
+        <v>7966</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>7965</v>
+        <v>7967</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>7966</v>
+        <v>7968</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>7967</v>
+        <v>7969</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>7968</v>
+        <v>7970</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>7969</v>
+        <v>7971</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>7970</v>
+        <v>7972</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>7971</v>
+        <v>7973</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>7972</v>
+        <v>7974</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>7973</v>
+        <v>7975</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>7974</v>
+        <v>7976</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>7975</v>
+        <v>7977</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>7976</v>
+        <v>7978</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>7977</v>
+        <v>7979</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>7978</v>
+        <v>7980</v>
       </c>
       <c r="B165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>7979</v>
+        <v>7981</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>7980</v>
+        <v>7982</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>7981</v>
+        <v>7983</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>7982</v>
+        <v>7984</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>7983</v>
+        <v>7985</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>7984</v>
+        <v>7986</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>7985</v>
+        <v>7987</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>7986</v>
+        <v>7988</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>7987</v>
+        <v>7989</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>7988</v>
+        <v>7990</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>7989</v>
+        <v>7991</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>7990</v>
+        <v>7992</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>7991</v>
+        <v>7993</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>7992</v>
+        <v>7994</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>7993</v>
+        <v>7995</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>7994</v>
+        <v>7996</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>7995</v>
+        <v>7997</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>7996</v>
+        <v>7998</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>7997</v>
+        <v>7999</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>7998</v>
+        <v>8000</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>7999</v>
+        <v>8001</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>8000</v>
+        <v>8002</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>8002</v>
+        <v>8004</v>
       </c>
       <c r="B189" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>8003</v>
+        <v>8005</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>8005</v>
+        <v>8007</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>8006</v>
+        <v>8008</v>
       </c>
       <c r="B193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>8008</v>
+        <v>8010</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>8009</v>
+        <v>8011</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>8010</v>
+        <v>8012</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>8011</v>
+        <v>8013</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>8012</v>
+        <v>8014</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>8013</v>
+        <v>8015</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>8014</v>
+        <v>8016</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>8015</v>
+        <v>8017</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>8016</v>
+        <v>8018</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>8017</v>
+        <v>8019</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>8018</v>
+        <v>8020</v>
       </c>
       <c r="B205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>8019</v>
+        <v>8021</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>8020</v>
+        <v>8022</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>8021</v>
+        <v>8023</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>8022</v>
+        <v>8024</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>8023</v>
+        <v>8025</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>8024</v>
+        <v>8026</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>8025</v>
+        <v>8027</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>8026</v>
+        <v>8028</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>8027</v>
+        <v>8029</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>8028</v>
+        <v>8030</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>8029</v>
+        <v>8031</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>8030</v>
+        <v>8032</v>
       </c>
       <c r="B217" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>8031</v>
+        <v>8033</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>8032</v>
+        <v>8034</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>8033</v>
+        <v>8035</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>8034</v>
+        <v>8036</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>8035</v>
+        <v>8037</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>8036</v>
+        <v>8038</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>8037</v>
+        <v>8039</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>8038</v>
+        <v>8040</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>8039</v>
+        <v>8041</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>8040</v>
+        <v>8042</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>8041</v>
+        <v>8043</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>8042</v>
+        <v>8044</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>8043</v>
+        <v>8045</v>
       </c>
       <c r="B230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>8044</v>
+        <v>8046</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>8045</v>
+        <v>8047</v>
       </c>
       <c r="B232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>8046</v>
+        <v>8048</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>8047</v>
+        <v>8049</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>8048</v>
+        <v>8050</v>
       </c>
       <c r="B235" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>8049</v>
+        <v>8051</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>8050</v>
+        <v>8052</v>
       </c>
       <c r="B237" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>8051</v>
+        <v>8053</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>8052</v>
+        <v>8054</v>
       </c>
       <c r="B239" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>8053</v>
+        <v>8055</v>
       </c>
       <c r="B240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>8054</v>
+        <v>8056</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>8055</v>
+        <v>8057</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>8056</v>
+        <v>8058</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>8057</v>
+        <v>8059</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>8058</v>
+        <v>8060</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>8059</v>
+        <v>8061</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>8060</v>
+        <v>8062</v>
       </c>
       <c r="B247" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>8061</v>
+        <v>8063</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>8062</v>
+        <v>8064</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>8063</v>
+        <v>8065</v>
       </c>
       <c r="B250" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>8064</v>
+        <v>8066</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>8065</v>
+        <v>8067</v>
       </c>
       <c r="B252" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>8066</v>
+        <v>8068</v>
       </c>
       <c r="B253" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>8067</v>
+        <v>8069</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>8068</v>
+        <v>8070</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>8069</v>
+        <v>8071</v>
       </c>
       <c r="B256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>8070</v>
+        <v>8072</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>8071</v>
+        <v>8073</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>8072</v>
+        <v>8074</v>
       </c>
       <c r="B259" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>8073</v>
+        <v>8075</v>
       </c>
       <c r="B260" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>8074</v>
+        <v>8076</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>8075</v>
+        <v>8077</v>
       </c>
       <c r="B262" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>8076</v>
+        <v>8078</v>
       </c>
       <c r="B263" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>8077</v>
+        <v>8079</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>8078</v>
+        <v>8080</v>
       </c>
       <c r="B265" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>8079</v>
+        <v>8081</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>8080</v>
+        <v>8082</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>8081</v>
+        <v>8083</v>
       </c>
       <c r="B268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>8082</v>
+        <v>8084</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>8083</v>
+        <v>8085</v>
       </c>
       <c r="B270" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C270" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>8084</v>
+        <v>8086</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>8085</v>
+        <v>8087</v>
       </c>
       <c r="B272" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>8086</v>
+        <v>8088</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>8087</v>
+        <v>8089</v>
       </c>
       <c r="B274" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>8088</v>
+        <v>8090</v>
       </c>
       <c r="B275" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>8089</v>
+        <v>8091</v>
       </c>
       <c r="B276" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>8090</v>
+        <v>8092</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>8091</v>
+        <v>8093</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>8092</v>
+        <v>8094</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C279" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>8093</v>
+        <v>8095</v>
       </c>
       <c r="B280" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>8094</v>
+        <v>8096</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>8095</v>
+        <v>8097</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>8096</v>
+        <v>8098</v>
       </c>
       <c r="B283" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>8097</v>
+        <v>8099</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>8098</v>
+        <v>8100</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>8099</v>
+        <v>8101</v>
       </c>
       <c r="B286" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>8100</v>
+        <v>8102</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>8101</v>
+        <v>8103</v>
       </c>
       <c r="B288" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>8102</v>
+        <v>8104</v>
       </c>
       <c r="B289" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C289" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>8103</v>
+        <v>8105</v>
       </c>
       <c r="B290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>8104</v>
+        <v>8106</v>
       </c>
       <c r="B291" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C291" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>8105</v>
+        <v>8107</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>8106</v>
+        <v>8108</v>
       </c>
       <c r="B293" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>8107</v>
+        <v>8109</v>
       </c>
       <c r="B294" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>8108</v>
+        <v>8110</v>
       </c>
       <c r="B295" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C295" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>8109</v>
+        <v>8111</v>
       </c>
       <c r="B296" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>8110</v>
+        <v>8112</v>
       </c>
       <c r="B297" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C297" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>8111</v>
+        <v>8113</v>
       </c>
       <c r="B298" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>8112</v>
+        <v>8114</v>
       </c>
       <c r="B299" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C299" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>8113</v>
+        <v>8115</v>
       </c>
       <c r="B300" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>8114</v>
+        <v>8116</v>
       </c>
       <c r="B301" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>8115</v>
+        <v>8117</v>
       </c>
       <c r="B302" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C302" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>8116</v>
+        <v>8118</v>
       </c>
       <c r="B303" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>8117</v>
+        <v>8119</v>
       </c>
       <c r="B304" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>8118</v>
+        <v>8120</v>
       </c>
       <c r="B305" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C305" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>8119</v>
+        <v>8121</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>8120</v>
+        <v>8122</v>
       </c>
       <c r="B307" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>8121</v>
+        <v>8123</v>
       </c>
       <c r="B308" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C308" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>8122</v>
+        <v>8124</v>
       </c>
       <c r="B309" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C309" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>8123</v>
+        <v>8125</v>
       </c>
       <c r="B310" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C310" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>8124</v>
+        <v>8126</v>
       </c>
       <c r="B311" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C311" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>8125</v>
+        <v>8127</v>
       </c>
       <c r="B312" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C312" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>8126</v>
+        <v>8128</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C313" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>8127</v>
+        <v>8129</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>8128</v>
+        <v>8130</v>
       </c>
       <c r="B315" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C315" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>8129</v>
+        <v>8131</v>
       </c>
       <c r="B316" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>8130</v>
+        <v>8132</v>
       </c>
       <c r="B317" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C317" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>8131</v>
+        <v>8133</v>
       </c>
       <c r="B318" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C318" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>8132</v>
+        <v>8134</v>
       </c>
       <c r="B319" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C319" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>8133</v>
+        <v>8135</v>
       </c>
       <c r="B320" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C320" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>8134</v>
+        <v>8136</v>
       </c>
       <c r="B321" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C321" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>8135</v>
+        <v>8137</v>
       </c>
       <c r="B322" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C322" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>8136</v>
+        <v>8138</v>
       </c>
       <c r="B323" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C323" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>8137</v>
+        <v>8139</v>
       </c>
       <c r="B324" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C324" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>8138</v>
+        <v>8140</v>
       </c>
       <c r="B325" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C325" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>8139</v>
+        <v>8141</v>
       </c>
       <c r="B326" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C326" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>8140</v>
+        <v>8142</v>
       </c>
       <c r="B327" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C327" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>8141</v>
+        <v>8143</v>
       </c>
       <c r="B328" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>8142</v>
+        <v>8144</v>
       </c>
       <c r="B329" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C329" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>8143</v>
+        <v>8145</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C330" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>8144</v>
+        <v>8146</v>
       </c>
       <c r="B331" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C331" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>8145</v>
+        <v>8147</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C332" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>8146</v>
+        <v>8148</v>
       </c>
       <c r="B333" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C333" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>8147</v>
+        <v>8149</v>
       </c>
       <c r="B334" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C334" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>8148</v>
+        <v>8150</v>
       </c>
       <c r="B335" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C335" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>8149</v>
+        <v>8151</v>
       </c>
       <c r="B336" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C336" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>8150</v>
+        <v>8152</v>
       </c>
       <c r="B337" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C337" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>8151</v>
+        <v>8153</v>
       </c>
       <c r="B338" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C338" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>8152</v>
+        <v>8154</v>
       </c>
       <c r="B339" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C339" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>8153</v>
+        <v>8155</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>8154</v>
+        <v>8156</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C341" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>8155</v>
+        <v>8157</v>
       </c>
       <c r="B342" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C342" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>8156</v>
+        <v>8158</v>
       </c>
       <c r="B343" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>8157</v>
+        <v>8159</v>
       </c>
       <c r="B344" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C344" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>8158</v>
+        <v>8160</v>
       </c>
       <c r="B345" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C345" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>8159</v>
+        <v>8161</v>
       </c>
       <c r="B346" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C346" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>8160</v>
+        <v>8163</v>
       </c>
       <c r="B347" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C347" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>8161</v>
+        <v>8164</v>
       </c>
       <c r="B348" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C348" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>8163</v>
+        <v>8166</v>
       </c>
       <c r="B349" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C349" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>8164</v>
+        <v>8167</v>
       </c>
       <c r="B350" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C350" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>8166</v>
+        <v>8168</v>
       </c>
       <c r="B351" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C351" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>8167</v>
+        <v>8169</v>
       </c>
       <c r="B352" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C352" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>8168</v>
+        <v>8170</v>
       </c>
       <c r="B353" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C353" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>8169</v>
+        <v>8171</v>
       </c>
       <c r="B354" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C354" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>8170</v>
+        <v>8172</v>
       </c>
       <c r="B355" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C355" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>8171</v>
+        <v>8173</v>
       </c>
       <c r="B356" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C356" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>8172</v>
+        <v>8174</v>
       </c>
       <c r="B357" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C357" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>8173</v>
+        <v>8175</v>
       </c>
       <c r="B358" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C358" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>8174</v>
+        <v>8176</v>
       </c>
       <c r="B359" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C359" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>8175</v>
+        <v>8177</v>
       </c>
       <c r="B360" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C360" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>8176</v>
+        <v>8178</v>
       </c>
       <c r="B361" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C361" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>8177</v>
+        <v>8179</v>
       </c>
       <c r="B362" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C362" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>8178</v>
+        <v>8180</v>
       </c>
       <c r="B363" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C363" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>8179</v>
+        <v>8181</v>
       </c>
       <c r="B364" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C364" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>8180</v>
+        <v>8182</v>
       </c>
       <c r="B365" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C365" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>8181</v>
+        <v>8183</v>
       </c>
       <c r="B366" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C366" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>8182</v>
+        <v>8184</v>
       </c>
       <c r="B367" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C367" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>8183</v>
+        <v>8185</v>
       </c>
       <c r="B368" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C368" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>8184</v>
+        <v>8186</v>
       </c>
       <c r="B369" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C369" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>8185</v>
+        <v>8187</v>
       </c>
       <c r="B370" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C370" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>8186</v>
+        <v>8188</v>
       </c>
       <c r="B371" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C371" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>8187</v>
+        <v>8189</v>
       </c>
       <c r="B372" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C372" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>8188</v>
+        <v>8190</v>
       </c>
       <c r="B373" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C373" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>8189</v>
+        <v>8191</v>
       </c>
       <c r="B374" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C374" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>8190</v>
+        <v>8192</v>
       </c>
       <c r="B375" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C375" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>8191</v>
+        <v>8193</v>
       </c>
       <c r="B376" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C376" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>8192</v>
+        <v>8194</v>
       </c>
       <c r="B377" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C377" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>8193</v>
+        <v>8195</v>
       </c>
       <c r="B378" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C378" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>8194</v>
+        <v>8196</v>
       </c>
       <c r="B379" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C379" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>8195</v>
+        <v>8197</v>
       </c>
       <c r="B380" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C380" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>8196</v>
+        <v>8198</v>
       </c>
       <c r="B381" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C381" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>8197</v>
+        <v>8199</v>
       </c>
       <c r="B382" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C382" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>8198</v>
+        <v>8200</v>
       </c>
       <c r="B383" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C383" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>8199</v>
+        <v>8201</v>
       </c>
       <c r="B384" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C384" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>8200</v>
+        <v>8202</v>
       </c>
       <c r="B385" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C385" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>8201</v>
+        <v>8203</v>
       </c>
       <c r="B386" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C386" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>8202</v>
+        <v>8204</v>
       </c>
       <c r="B387" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C387" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>8203</v>
+        <v>8205</v>
       </c>
       <c r="B388" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C388" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>8204</v>
+        <v>8206</v>
       </c>
       <c r="B389" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C389" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>8205</v>
+        <v>8207</v>
       </c>
       <c r="B390" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C390" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>8206</v>
+        <v>8208</v>
       </c>
       <c r="B391" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C391" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>8207</v>
+        <v>8209</v>
       </c>
       <c r="B392" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C392" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>8208</v>
+        <v>8210</v>
       </c>
       <c r="B393" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C393" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>8209</v>
+        <v>8211</v>
       </c>
       <c r="B394" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C394" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>8210</v>
+        <v>8212</v>
       </c>
       <c r="B395" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C395" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>8211</v>
+        <v>8213</v>
       </c>
       <c r="B396" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C396" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>8212</v>
+        <v>8214</v>
       </c>
       <c r="B397" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C397" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>8213</v>
+        <v>8215</v>
       </c>
       <c r="B398" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C398" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>8214</v>
+        <v>8216</v>
       </c>
       <c r="B399" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C399" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>8215</v>
+        <v>8217</v>
       </c>
       <c r="B400" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C400" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>8216</v>
+        <v>8218</v>
       </c>
       <c r="B401" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C401" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>8217</v>
+        <v>8219</v>
       </c>
       <c r="B402" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C402" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>8218</v>
+        <v>8220</v>
       </c>
       <c r="B403" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C403" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>8219</v>
+        <v>8221</v>
       </c>
       <c r="B404" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C404" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>8220</v>
+        <v>8222</v>
       </c>
       <c r="B405" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C405" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>8221</v>
+        <v>8223</v>
       </c>
       <c r="B406" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C406" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>8222</v>
+        <v>8224</v>
       </c>
       <c r="B407" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C407" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>8223</v>
+        <v>8225</v>
       </c>
       <c r="B408" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C408" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>8224</v>
+        <v>8226</v>
       </c>
       <c r="B409" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C409" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>8225</v>
+        <v>8227</v>
       </c>
       <c r="B410" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C410" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>8226</v>
+        <v>8228</v>
       </c>
       <c r="B411" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C411" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>8227</v>
+        <v>8229</v>
       </c>
       <c r="B412" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C412" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>8228</v>
+        <v>8230</v>
       </c>
       <c r="B413" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C413" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>8229</v>
+        <v>8231</v>
       </c>
       <c r="B414" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C414" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>8230</v>
+        <v>8232</v>
       </c>
       <c r="B415" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C415" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>8231</v>
+        <v>8233</v>
       </c>
       <c r="B416" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C416" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>8232</v>
+        <v>8234</v>
       </c>
       <c r="B417" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C417" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>8233</v>
+        <v>8235</v>
       </c>
       <c r="B418" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C418" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>8234</v>
+        <v>8236</v>
       </c>
       <c r="B419" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C419" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>8235</v>
+        <v>8237</v>
       </c>
       <c r="B420" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C420" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>8236</v>
+        <v>8238</v>
       </c>
       <c r="B421" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C421" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>8237</v>
+        <v>8239</v>
       </c>
       <c r="B422" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C422" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>8238</v>
+        <v>8240</v>
       </c>
       <c r="B423" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C423" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>8239</v>
+        <v>8241</v>
       </c>
       <c r="B424" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C424" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>8240</v>
+        <v>8242</v>
       </c>
       <c r="B425" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C425" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>8241</v>
+        <v>8243</v>
       </c>
       <c r="B426" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C426" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>8242</v>
+        <v>8244</v>
       </c>
       <c r="B427" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C427" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>8243</v>
+        <v>8245</v>
       </c>
       <c r="B428" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C428" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>8244</v>
+        <v>8246</v>
       </c>
       <c r="B429" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C429" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>8245</v>
+        <v>8247</v>
       </c>
       <c r="B430" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C430" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>8246</v>
+        <v>8248</v>
       </c>
       <c r="B431" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C431" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>8247</v>
+        <v>8249</v>
       </c>
       <c r="B432" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C432" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>8248</v>
+        <v>8250</v>
       </c>
       <c r="B433" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C433" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>8249</v>
+        <v>8251</v>
       </c>
       <c r="B434" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C434" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>8250</v>
+        <v>8252</v>
       </c>
       <c r="B435" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C435" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>8251</v>
+        <v>8253</v>
       </c>
       <c r="B436" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C436" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>8252</v>
+        <v>8254</v>
       </c>
       <c r="B437" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C437" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>8253</v>
+        <v>8255</v>
       </c>
       <c r="B438" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C438" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>8254</v>
+        <v>8256</v>
       </c>
       <c r="B439" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C439" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>8255</v>
+        <v>8258</v>
       </c>
       <c r="B440" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C440" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>8256</v>
+        <v>8259</v>
       </c>
       <c r="B441" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C441" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>8257</v>
+        <v>8260</v>
       </c>
       <c r="B442" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C442" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>8258</v>
+        <v>8261</v>
       </c>
       <c r="B443" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C443" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>8259</v>
+        <v>8262</v>
       </c>
       <c r="B444" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C444" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>8260</v>
+        <v>8263</v>
       </c>
       <c r="B445" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C445" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>8261</v>
+        <v>8264</v>
       </c>
       <c r="B446" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C446" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>8262</v>
+        <v>8265</v>
       </c>
       <c r="B447" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C447" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>8263</v>
+        <v>8266</v>
       </c>
       <c r="B448" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C448" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>8264</v>
+        <v>8267</v>
       </c>
       <c r="B449" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C449" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>8265</v>
+        <v>8268</v>
       </c>
       <c r="B450" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C450" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>8266</v>
+        <v>8269</v>
       </c>
       <c r="B451" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C451" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>8267</v>
+        <v>8270</v>
       </c>
       <c r="B452" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C452" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>8268</v>
+        <v>8271</v>
       </c>
       <c r="B453" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C453" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>8269</v>
+        <v>8272</v>
       </c>
       <c r="B454" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C454" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>8270</v>
+        <v>8273</v>
       </c>
       <c r="B455" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C455" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>8271</v>
+        <v>8274</v>
       </c>
       <c r="B456" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C456" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>8272</v>
+        <v>8275</v>
       </c>
       <c r="B457" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C457" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>8273</v>
+        <v>8276</v>
       </c>
       <c r="B458" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C458" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>8274</v>
+        <v>8277</v>
       </c>
       <c r="B459" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C459" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>8275</v>
+        <v>8278</v>
       </c>
       <c r="B460" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C460" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>8276</v>
+        <v>8279</v>
       </c>
       <c r="B461" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C461" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>8277</v>
+        <v>8280</v>
       </c>
       <c r="B462" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C462" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>8278</v>
+        <v>8281</v>
       </c>
       <c r="B463" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C463" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>8279</v>
+        <v>8282</v>
       </c>
       <c r="B464" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C464" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>8280</v>
+        <v>8283</v>
       </c>
       <c r="B465" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C465" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>8281</v>
+        <v>8284</v>
       </c>
       <c r="B466" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C466" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>8282</v>
+        <v>8285</v>
       </c>
       <c r="B467" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C467" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>8283</v>
+        <v>8286</v>
       </c>
       <c r="B468" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C468" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>8284</v>
+        <v>8287</v>
       </c>
       <c r="B469" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C469" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>8285</v>
+        <v>8288</v>
       </c>
       <c r="B470" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C470" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>8286</v>
+        <v>8289</v>
       </c>
       <c r="B471" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C471" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>8287</v>
+        <v>8290</v>
       </c>
       <c r="B472" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C472" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>8288</v>
+        <v>8291</v>
       </c>
       <c r="B473" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C473" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>8289</v>
+        <v>8292</v>
       </c>
       <c r="B474" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C474" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>8290</v>
+        <v>8293</v>
       </c>
       <c r="B475" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C475" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>8291</v>
+        <v>8294</v>
       </c>
       <c r="B476" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C476" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>8292</v>
+        <v>8295</v>
       </c>
       <c r="B477" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C477" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>8293</v>
+        <v>8296</v>
       </c>
       <c r="B478" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C478" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>8294</v>
+        <v>8297</v>
       </c>
       <c r="B479" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C479" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>8295</v>
+        <v>8298</v>
       </c>
       <c r="B480" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C480" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>8296</v>
+        <v>8299</v>
       </c>
       <c r="B481" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C481" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>8297</v>
+        <v>8300</v>
       </c>
       <c r="B482" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C482" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
-        <v>8298</v>
+        <v>8301</v>
       </c>
       <c r="B483" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C483" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>8299</v>
+        <v>8302</v>
       </c>
       <c r="B484" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C484" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>8300</v>
+        <v>8303</v>
       </c>
       <c r="B485" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C485" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>8301</v>
+        <v>8304</v>
       </c>
       <c r="B486" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C486" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487">
-        <v>8302</v>
+        <v>8305</v>
       </c>
       <c r="B487" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C487" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>8303</v>
+        <v>8306</v>
       </c>
       <c r="B488" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C488" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>8304</v>
+        <v>8307</v>
       </c>
       <c r="B489" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C489" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>8305</v>
+        <v>8308</v>
       </c>
       <c r="B490" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C490" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491">
-        <v>8306</v>
+        <v>8309</v>
       </c>
       <c r="B491" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C491" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
-        <v>8307</v>
+        <v>8310</v>
       </c>
       <c r="B492" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C492" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
-        <v>8308</v>
+        <v>8311</v>
       </c>
       <c r="B493" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C493" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
-        <v>8309</v>
+        <v>8312</v>
       </c>
       <c r="B494" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C494" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
-        <v>8310</v>
+        <v>8313</v>
       </c>
       <c r="B495" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C495" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
-        <v>8311</v>
+        <v>8314</v>
       </c>
       <c r="B496" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C496" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>8312</v>
+        <v>8315</v>
       </c>
       <c r="B497" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C497" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498">
-        <v>8313</v>
+        <v>8316</v>
       </c>
       <c r="B498" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C498" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499">
-        <v>8314</v>
+        <v>8317</v>
       </c>
       <c r="B499" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C499" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500">
-        <v>8315</v>
+        <v>8318</v>
       </c>
       <c r="B500" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C500" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501">
-        <v>8316</v>
+        <v>8319</v>
       </c>
       <c r="B501" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C501" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502">
-        <v>8317</v>
+        <v>8320</v>
       </c>
       <c r="B502" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C502" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503">
-        <v>8318</v>
+        <v>8321</v>
       </c>
       <c r="B503" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C503" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504">
-        <v>8319</v>
+        <v>8322</v>
       </c>
       <c r="B504" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C504" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505">
-        <v>8320</v>
+        <v>8323</v>
       </c>
       <c r="B505" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C505" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506">
-        <v>8321</v>
+        <v>8324</v>
       </c>
       <c r="B506" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C506" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507">
-        <v>8322</v>
+        <v>8325</v>
       </c>
       <c r="B507" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C507" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508">
-        <v>8323</v>
+        <v>8326</v>
       </c>
       <c r="B508" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C508" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509">
-        <v>8324</v>
+        <v>8327</v>
       </c>
       <c r="B509" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C509" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510">
-        <v>8325</v>
+        <v>8328</v>
       </c>
       <c r="B510" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C510" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511">
-        <v>8326</v>
+        <v>8329</v>
       </c>
       <c r="B511" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C511" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512">
-        <v>8327</v>
+        <v>8330</v>
       </c>
       <c r="B512" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C512" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513">
-        <v>8328</v>
+        <v>8331</v>
       </c>
       <c r="B513" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C513" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514">
-        <v>8329</v>
+        <v>8332</v>
       </c>
       <c r="B514" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C514" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515">
-        <v>8330</v>
+        <v>8333</v>
       </c>
       <c r="B515" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C515" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516">
-        <v>8331</v>
+        <v>8334</v>
       </c>
       <c r="B516" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C516" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517">
-        <v>8332</v>
+        <v>8335</v>
       </c>
       <c r="B517" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C517" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518">
-        <v>8333</v>
+        <v>8336</v>
       </c>
       <c r="B518" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C518" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519">
-        <v>8334</v>
+        <v>8337</v>
       </c>
       <c r="B519" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C519" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520">
-        <v>8335</v>
+        <v>8338</v>
       </c>
       <c r="B520" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C520" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521">
-        <v>8336</v>
+        <v>8339</v>
       </c>
       <c r="B521" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C521" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522">
-        <v>8337</v>
+        <v>8340</v>
       </c>
       <c r="B522" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C522" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523">
-        <v>8338</v>
+        <v>8341</v>
       </c>
       <c r="B523" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C523" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524">
-        <v>8339</v>
+        <v>8342</v>
       </c>
       <c r="B524" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C524" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525">
-        <v>8340</v>
+        <v>8343</v>
       </c>
       <c r="B525" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C525" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526">
-        <v>8341</v>
+        <v>8344</v>
       </c>
       <c r="B526" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C526" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527">
-        <v>8342</v>
+        <v>8345</v>
       </c>
       <c r="B527" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C527" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528">
-        <v>8343</v>
+        <v>8346</v>
       </c>
       <c r="B528" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C528" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529">
-        <v>8344</v>
+        <v>8347</v>
       </c>
       <c r="B529" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C529" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530">
-        <v>8345</v>
+        <v>8348</v>
       </c>
       <c r="B530" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C530" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531">
-        <v>8346</v>
+        <v>8349</v>
       </c>
       <c r="B531" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C531" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532">
-        <v>8347</v>
+        <v>8350</v>
       </c>
       <c r="B532" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C532" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533">
-        <v>8348</v>
+        <v>8351</v>
       </c>
       <c r="B533" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C533" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534">
-        <v>8349</v>
+        <v>8352</v>
       </c>
       <c r="B534" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C534" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535">
-        <v>8350</v>
+        <v>8353</v>
       </c>
       <c r="B535" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C535" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536">
-        <v>8351</v>
+        <v>8354</v>
       </c>
       <c r="B536" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C536" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537">
-        <v>8352</v>
+        <v>8355</v>
       </c>
       <c r="B537" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C537" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538">
-        <v>8353</v>
+        <v>8356</v>
       </c>
       <c r="B538" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C538" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539">
-        <v>8354</v>
+        <v>8357</v>
       </c>
       <c r="B539" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C539" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540">
-        <v>8355</v>
+        <v>8358</v>
       </c>
       <c r="B540" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C540" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541">
-        <v>8356</v>
+        <v>8359</v>
       </c>
       <c r="B541" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C541" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542">
-        <v>8357</v>
+        <v>8360</v>
       </c>
       <c r="B542" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C542" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543">
-        <v>8358</v>
+        <v>8361</v>
       </c>
       <c r="B543" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C543" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544">
-        <v>8359</v>
+        <v>8362</v>
       </c>
       <c r="B544" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C544" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545">
-        <v>8360</v>
+        <v>8363</v>
       </c>
       <c r="B545" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C545" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546">
-        <v>8361</v>
+        <v>8364</v>
       </c>
       <c r="B546" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C546" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547">
-        <v>8362</v>
+        <v>8365</v>
       </c>
       <c r="B547" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C547" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548">
-        <v>8363</v>
+        <v>8366</v>
       </c>
       <c r="B548" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C548" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549">
-        <v>8364</v>
+        <v>8367</v>
       </c>
       <c r="B549" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C549" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550">
-        <v>8365</v>
+        <v>8368</v>
       </c>
       <c r="B550" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C550" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551">
-        <v>8366</v>
+        <v>8369</v>
       </c>
       <c r="B551" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C551" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552">
-        <v>8367</v>
+        <v>8370</v>
       </c>
       <c r="B552" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C552" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553">
-        <v>8368</v>
+        <v>8371</v>
       </c>
       <c r="B553" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C553" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554">
-        <v>8369</v>
+        <v>8372</v>
       </c>
       <c r="B554" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C554" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555">
-        <v>8370</v>
+        <v>8373</v>
       </c>
       <c r="B555" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C555" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556">
-        <v>8371</v>
+        <v>8374</v>
       </c>
       <c r="B556" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C556" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557">
-        <v>8372</v>
+        <v>8375</v>
       </c>
       <c r="B557" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C557" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558">
-        <v>8373</v>
+        <v>8376</v>
       </c>
       <c r="B558" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C558" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559">
-        <v>8374</v>
+        <v>8377</v>
       </c>
       <c r="B559" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C559" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560">
-        <v>8375</v>
+        <v>8378</v>
       </c>
       <c r="B560" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C560" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561">
-        <v>8376</v>
+        <v>8379</v>
       </c>
       <c r="B561" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C561" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562">
-        <v>8377</v>
+        <v>8380</v>
       </c>
       <c r="B562" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C562" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563">
-        <v>8378</v>
+        <v>8381</v>
       </c>
       <c r="B563" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C563" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564">
-        <v>8379</v>
+        <v>8382</v>
       </c>
       <c r="B564" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C564" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565">
-        <v>8380</v>
+        <v>8383</v>
       </c>
       <c r="B565" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C565" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566">
-        <v>8381</v>
+        <v>8384</v>
       </c>
       <c r="B566" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C566" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567">
-        <v>8382</v>
+        <v>8385</v>
       </c>
       <c r="B567" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C567" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568">
-        <v>8383</v>
+        <v>8386</v>
       </c>
       <c r="B568" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C568" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569">
-        <v>8384</v>
+        <v>8387</v>
       </c>
       <c r="B569" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C569" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570">
-        <v>8385</v>
+        <v>8844</v>
       </c>
       <c r="B570" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C570" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571">
-        <v>8386</v>
+        <v>8955</v>
       </c>
       <c r="B571" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C571" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572">
-        <v>8387</v>
+        <v>8956</v>
       </c>
       <c r="B572" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C572" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573">
-        <v>8844</v>
+        <v>8957</v>
       </c>
       <c r="B573" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C573" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574">
-        <v>8955</v>
+        <v>9019</v>
       </c>
       <c r="B574" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C574" t="s">
         <v>576</v>
@@ -8415,10 +8487,10 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575">
-        <v>8956</v>
+        <v>9020</v>
       </c>
       <c r="B575" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C575" t="s">
         <v>577</v>
@@ -8426,13 +8498,277 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576">
-        <v>8957</v>
+        <v>9021</v>
       </c>
       <c r="B576" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C576" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>9022</v>
+      </c>
+      <c r="B577" t="s">
+        <v>2</v>
+      </c>
+      <c r="C577" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>9023</v>
+      </c>
+      <c r="B578" t="s">
+        <v>2</v>
+      </c>
+      <c r="C578" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>9024</v>
+      </c>
+      <c r="B579" t="s">
+        <v>2</v>
+      </c>
+      <c r="C579" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>9025</v>
+      </c>
+      <c r="B580" t="s">
+        <v>2</v>
+      </c>
+      <c r="C580" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>9026</v>
+      </c>
+      <c r="B581" t="s">
+        <v>2</v>
+      </c>
+      <c r="C581" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>9027</v>
+      </c>
+      <c r="B582" t="s">
+        <v>2</v>
+      </c>
+      <c r="C582" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>9028</v>
+      </c>
+      <c r="B583" t="s">
+        <v>2</v>
+      </c>
+      <c r="C583" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>9029</v>
+      </c>
+      <c r="B584" t="s">
+        <v>2</v>
+      </c>
+      <c r="C584" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>9030</v>
+      </c>
+      <c r="B585" t="s">
+        <v>2</v>
+      </c>
+      <c r="C585" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>9031</v>
+      </c>
+      <c r="B586" t="s">
+        <v>2</v>
+      </c>
+      <c r="C586" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>9054</v>
+      </c>
+      <c r="B587" t="s">
+        <v>2</v>
+      </c>
+      <c r="C587" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>9055</v>
+      </c>
+      <c r="B588" t="s">
+        <v>2</v>
+      </c>
+      <c r="C588" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>9056</v>
+      </c>
+      <c r="B589" t="s">
+        <v>2</v>
+      </c>
+      <c r="C589" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>9057</v>
+      </c>
+      <c r="B590" t="s">
+        <v>2</v>
+      </c>
+      <c r="C590" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>9058</v>
+      </c>
+      <c r="B591" t="s">
+        <v>2</v>
+      </c>
+      <c r="C591" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>9059</v>
+      </c>
+      <c r="B592" t="s">
+        <v>2</v>
+      </c>
+      <c r="C592" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>9060</v>
+      </c>
+      <c r="B593" t="s">
+        <v>2</v>
+      </c>
+      <c r="C593" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>9061</v>
+      </c>
+      <c r="B594" t="s">
+        <v>2</v>
+      </c>
+      <c r="C594" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>9062</v>
+      </c>
+      <c r="B595" t="s">
+        <v>2</v>
+      </c>
+      <c r="C595" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>9063</v>
+      </c>
+      <c r="B596" t="s">
+        <v>2</v>
+      </c>
+      <c r="C596" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>9064</v>
+      </c>
+      <c r="B597" t="s">
+        <v>2</v>
+      </c>
+      <c r="C597" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>9065</v>
+      </c>
+      <c r="B598" t="s">
+        <v>2</v>
+      </c>
+      <c r="C598" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>9066</v>
+      </c>
+      <c r="B599" t="s">
+        <v>2</v>
+      </c>
+      <c r="C599" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>9067</v>
+      </c>
+      <c r="B600" t="s">
+        <v>2</v>
+      </c>
+      <c r="C600" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
